--- a/Quiz_14.2_Key.xlsx
+++ b/Quiz_14.2_Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattb\Desktop\1220_Quizzes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00015A0F-7373-4F27-AB8E-7A22FCECF8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7898EC98-0C95-421B-863F-D11235153CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25980" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B-&gt;C" sheetId="2" r:id="rId1"/>
@@ -7334,7 +7334,7 @@
   <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9030,12 +9030,12 @@
         <v>6.0460000000000003</v>
       </c>
       <c r="Q25" s="2">
-        <f>0.0321/L116^2</f>
-        <v>6.1597540654277134</v>
+        <f>0.0321/AVERAGE(L4:L228)^2</f>
+        <v>6.0193269123539608</v>
       </c>
       <c r="R25" s="2">
-        <f>0.4678/T116</f>
-        <v>6.0270415990200474</v>
+        <f>0.4678/AVERAGE(T4:T228)</f>
+        <v>6.0130888800486861</v>
       </c>
       <c r="S25">
         <v>21</v>
